--- a/public/sample/consignee_bulkimport.xlsx
+++ b/public/sample/consignee_bulkimport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00471\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39A866-8F5C-48F4-8725-EF82AB5D0F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5D0BB-E242-4C62-9B29-4CB8A4EB7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Sr No.</t>
   </si>
@@ -43,27 +43,6 @@
     <t>Hem Raj</t>
   </si>
   <si>
-    <t>Sazal</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Rajat</t>
-  </si>
-  <si>
-    <t>sazal@yopmail.com</t>
-  </si>
-  <si>
-    <t>Conee name</t>
-  </si>
-  <si>
-    <t>Contnm</t>
-  </si>
-  <si>
-    <t>raj@yopmail.com</t>
-  </si>
-  <si>
     <t>karnal</t>
   </si>
   <si>
@@ -85,108 +64,27 @@
     <t>mukerian</t>
   </si>
   <si>
-    <t>jind</t>
-  </si>
-  <si>
-    <t>ropar</t>
-  </si>
-  <si>
-    <t>ujwal@yopmail.com</t>
-  </si>
-  <si>
     <t>logitrade@yopmail.com</t>
   </si>
   <si>
     <t>lgi</t>
   </si>
   <si>
-    <t>uju</t>
-  </si>
-  <si>
-    <t>uppi</t>
-  </si>
-  <si>
-    <t>khemraj</t>
-  </si>
-  <si>
-    <t>summo</t>
-  </si>
-  <si>
-    <t>jimmy</t>
-  </si>
-  <si>
-    <t>sarro</t>
-  </si>
-  <si>
-    <t>lavuu</t>
-  </si>
-  <si>
-    <t>taru</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>ambala</t>
-  </si>
-  <si>
-    <t>zirakpur</t>
-  </si>
-  <si>
     <t>Legal Name</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>kurali</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>satyam</t>
-  </si>
-  <si>
-    <t>anil</t>
-  </si>
-  <si>
-    <t>bhat</t>
-  </si>
-  <si>
-    <t>shinam</t>
-  </si>
-  <si>
     <t>Dealer Type</t>
   </si>
   <si>
@@ -221,6 +119,9 @@
   </si>
   <si>
     <t>Address Line3</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -598,27 +499,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.81640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" customWidth="1"/>
-    <col min="11" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="12" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,417 +527,141 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
         <v>3456789087</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2">
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2">
         <v>235742</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
         <v>8739749563</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3">
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>454332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6754321345</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4">
-        <v>452367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8974365743</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5">
-        <v>546788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6">
-        <v>446655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7">
-        <v>342344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8">
-        <v>123212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9">
-        <v>434343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S10">
-        <v>543454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7432832653</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11">
-        <v>987484</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{15D69673-994D-4EBF-BDDC-EB5C6CB34B4B}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{E2026D94-FD88-4275-8CC7-D74C64A3137F}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{38C6131A-7D0F-4FF1-BD2A-D84FA4ACE2F9}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{15D69673-994D-4EBF-BDDC-EB5C6CB34B4B}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{38C6131A-7D0F-4FF1-BD2A-D84FA4ACE2F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/sample/consignee_bulkimport.xlsx
+++ b/public/sample/consignee_bulkimport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5D0BB-E242-4C62-9B29-4CB8A4EB7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479A3DC-655A-42A7-BEC4-6EAEF862573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sr No.</t>
   </si>
@@ -40,9 +40,6 @@
     <t>District</t>
   </si>
   <si>
-    <t>Hem Raj</t>
-  </si>
-  <si>
     <t>karnal</t>
   </si>
   <si>
@@ -61,27 +58,12 @@
     <t>kaithal</t>
   </si>
   <si>
-    <t>mukerian</t>
-  </si>
-  <si>
-    <t>logitrade@yopmail.com</t>
-  </si>
-  <si>
-    <t>lgi</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>Legal Name</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -91,15 +73,6 @@
     <t>Gst Number</t>
   </si>
   <si>
-    <t>Sales Officer Name</t>
-  </si>
-  <si>
-    <t>Sales Officer Email</t>
-  </si>
-  <si>
-    <t>Sales Officer Phone</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -122,6 +95,12 @@
   </si>
   <si>
     <t>User</t>
+  </si>
+  <si>
+    <t>Address Line4</t>
+  </si>
+  <si>
+    <t>Registered</t>
   </si>
 </sst>
 </file>
@@ -499,27 +478,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" customWidth="1"/>
-    <col min="12" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.36328125" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,141 +506,109 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
       </c>
       <c r="J2" s="2">
         <v>3456789087</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2">
         <v>235742</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8739749563</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3">
-        <v>454332</v>
-      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="Q3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{15D69673-994D-4EBF-BDDC-EB5C6CB34B4B}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{38C6131A-7D0F-4FF1-BD2A-D84FA4ACE2F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample/consignee_bulkimport.xlsx
+++ b/public/sample/consignee_bulkimport.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00010\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B479A3DC-655A-42A7-BEC4-6EAEF862573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8627A76A-9A4E-4B1C-B666-E0EED8955145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F387F7B0-93F9-43D4-9CB3-8572718AEE13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sr No.</t>
   </si>
@@ -28,87 +43,100 @@
     <t>Nick Name</t>
   </si>
   <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Consigner</t>
   </si>
   <si>
+    <t>Dealer Type</t>
+  </si>
+  <si>
+    <t>Gst Number</t>
+  </si>
+  <si>
     <t>Contact Name</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Address Line1</t>
+  </si>
+  <si>
+    <t>Address Line2</t>
+  </si>
+  <si>
+    <t>Address Line3</t>
+  </si>
+  <si>
+    <t>Address Line4</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>District</t>
   </si>
   <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Suman</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>karnal</t>
   </si>
   <si>
     <t>santosh</t>
   </si>
   <si>
+    <t>Registered</t>
+  </si>
+  <si>
     <t>sandy</t>
   </si>
   <si>
     <t>suman@yopmail.com</t>
   </si>
   <si>
-    <t>Suman</t>
-  </si>
-  <si>
     <t>kaithal</t>
-  </si>
-  <si>
-    <t>Legal Name</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Dealer Type</t>
-  </si>
-  <si>
-    <t>Gst Number</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address Line1</t>
-  </si>
-  <si>
-    <t>Address Line2</t>
-  </si>
-  <si>
-    <t>Address Line3</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Address Line4</t>
-  </si>
-  <si>
-    <t>Registered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -116,20 +144,9 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,22 +171,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -477,138 +494,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D61531-4123-4217-A7F5-85FED5AE74E1}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3456789087</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2">
-        <v>3456789087</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2">
+      <c r="Q2">
         <v>235742</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="Q3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{15D69673-994D-4EBF-BDDC-EB5C6CB34B4B}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{05E36A5B-7606-4A78-89DE-72B3561F6F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample/consignee_bulkimport.xlsx
+++ b/public/sample/consignee_bulkimport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FR-CHD-00010\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8627A76A-9A4E-4B1C-B666-E0EED8955145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0C3D7-958B-4923-99B4-F602073DD9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F387F7B0-93F9-43D4-9CB3-8572718AEE13}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sr No.</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Legal Name</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Consigner</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>karnal</t>
   </si>
   <si>
     <t>santosh</t>
@@ -495,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D61531-4123-4217-A7F5-85FED5AE74E1}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,16 +507,16 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -531,7 +525,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -546,57 +540,51 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="3">
+        <v>3456789087</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3">
-        <v>3456789087</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2">
+      <c r="P2">
         <v>235742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{05E36A5B-7606-4A78-89DE-72B3561F6F39}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{05E36A5B-7606-4A78-89DE-72B3561F6F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/sample/consignee_bulkimport.xlsx
+++ b/public/sample/consignee_bulkimport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\easemylr-pro\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D0C3D7-958B-4923-99B4-F602073DD9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB60FEFE-C49B-4F85-9714-D68A3C5F309D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F387F7B0-93F9-43D4-9CB3-8572718AEE13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F387F7B0-93F9-43D4-9CB3-8572718AEE13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sr No.</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>kaithal</t>
+  </si>
+  <si>
+    <t>Consigner Id</t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D61531-4123-4217-A7F5-85FED5AE74E1}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,47 +518,50 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -563,28 +574,28 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>3456789087</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>235742</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{05E36A5B-7606-4A78-89DE-72B3561F6F39}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{05E36A5B-7606-4A78-89DE-72B3561F6F39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
